--- a/Excel Data/OrderInputterMenu.xlsx
+++ b/Excel Data/OrderInputterMenu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OnlineAccountInformation" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Account</t>
   </si>
@@ -66,15 +66,32 @@
   </si>
   <si>
     <t>TransictionID</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -97,12 +114,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,21 +589,35 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1007735360</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>20230101</v>
       </c>
+      <c r="C2" s="8">
+        <v>119804</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -417,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,15 +637,29 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1007735360</v>
       </c>
+      <c r="B2" s="8">
+        <v>119804</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -445,10 +668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,15 +679,29 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1007735360.9</v>
       </c>
+      <c r="B2" s="8">
+        <v>119803</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -473,10 +710,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,21 +721,27 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20230101</v>
       </c>
       <c r="B2">
         <v>1007735360</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -507,10 +750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,45 +762,59 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1007735360</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>25000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>1007735958</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="8">
+        <v>119800</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,10 +823,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" activeCellId="2" sqref="A2 L11 K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,45 +835,59 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1007735360</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>25000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>1007735958</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="8">
+        <v>119802</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/OrderInputterMenu.xlsx
+++ b/Excel Data/OrderInputterMenu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OnlineAccountInformation" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Account</t>
   </si>
@@ -59,9 +59,6 @@
     <t>e0Y e0M e0W eBD e0F</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>STOCOMS</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>1006416161.3;2</t>
   </si>
 </sst>
 </file>
@@ -597,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -642,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -670,13 +670,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -684,18 +687,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1007735360.9</v>
       </c>
       <c r="B2" s="8">
         <v>119803</v>
@@ -753,18 +756,25 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
@@ -782,13 +792,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -796,19 +806,19 @@
         <v>1007735360</v>
       </c>
       <c r="B2" s="11">
-        <v>25000</v>
+        <v>25001</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
+      <c r="D2" s="11">
+        <v>1000006234</v>
       </c>
       <c r="E2" s="11">
         <v>1007735958</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8">
         <v>119800</v>
@@ -825,19 +835,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
@@ -855,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -874,14 +891,14 @@
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
+      <c r="D2" s="11">
+        <v>1000006234</v>
       </c>
       <c r="E2" s="11">
         <v>1007735958</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8">
         <v>119802</v>

--- a/Excel Data/OrderInputterMenu.xlsx
+++ b/Excel Data/OrderInputterMenu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OnlineAccountInformation" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
